--- a/resultados/leNetMNIST_1/models_metrics.xlsx
+++ b/resultados/leNetMNIST_1/models_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.468350681304932</v>
+        <v>1.468248125394185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9936041666666666</v>
+        <v>0.9935</v>
       </c>
       <c r="D2" t="n">
-        <v>1.476085614016716</v>
+        <v>1.476148887517604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9855</v>
+        <v>0.9855833333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>158.349708</v>
+        <v>168.924487</v>
       </c>
       <c r="G2" t="n">
-        <v>38.488</v>
+        <v>47.034</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.468640953620275</v>
+        <v>1.468089960575104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9934270833333333</v>
+        <v>0.9936875000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1.476224264882981</v>
+        <v>1.475915903740741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9850833333333333</v>
+        <v>0.9858333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>156.966512</v>
+        <v>161.379267</v>
       </c>
       <c r="G3" t="n">
-        <v>39.89</v>
+        <v>39.598</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.468137284808689</v>
+        <v>1.468155121909248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9939027777777777</v>
+        <v>0.9936527777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>1.476189807163063</v>
+        <v>1.47642212450927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9853611111111111</v>
+        <v>0.9852222222222222</v>
       </c>
       <c r="F4" t="n">
-        <v>158.83319</v>
+        <v>159.966994</v>
       </c>
       <c r="G4" t="n">
-        <v>40.617</v>
+        <v>39.087</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.468086927374204</v>
+        <v>1.468253677686056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9939270833333333</v>
+        <v>0.9935729166666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1.475875253214481</v>
+        <v>1.476177233330747</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9857083333333334</v>
+        <v>0.9853333333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>161.31424</v>
+        <v>158.327708</v>
       </c>
       <c r="G5" t="n">
-        <v>40.503</v>
+        <v>38.411</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,147 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.468088951714834</v>
+        <v>1.468174898433686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9939</v>
+        <v>0.9936416666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1.475562379461654</v>
+        <v>1.476718325056928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9860000000000001</v>
+        <v>0.98475</v>
       </c>
       <c r="F6" t="n">
-        <v>159.448073</v>
+        <v>160.434203</v>
       </c>
       <c r="G6" t="n">
-        <v>41.075</v>
+        <v>37.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Modelo_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.468235341734356</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9936076388888888</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.476321273873038</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9852083333333334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>157.969453</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Modelo_7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.468298549084436</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9935744047619047</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.476091144023333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9854404761904761</v>
+      </c>
+      <c r="F8" t="n">
+        <v>159.277953</v>
+      </c>
+      <c r="G8" t="n">
+        <v>39.037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Modelo_8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.468290263454119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9935807291666667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.476466377285567</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9850208333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>158.125001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39.946</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Modelo_9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.468302414434927</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.993587962962963</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.476653599499529</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9848703703703704</v>
+      </c>
+      <c r="F10" t="n">
+        <v>156.585554</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.975</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Modelo_10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.468235771958033</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9936479166666669</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.476601914585905</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9849250000000002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>158.515049</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.528</v>
       </c>
     </row>
   </sheetData>
